--- a/wfp-python/company/sample_company.xlsx
+++ b/wfp-python/company/sample_company.xlsx
@@ -690,14 +690,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
